--- a/kerjaan/lailatul istiqomah/invoice.xlsx
+++ b/kerjaan/lailatul istiqomah/invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\kerjaan\lailatul istiqomah\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN PROJECT\zen\kerjaan\lailatul istiqomah\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870F2A3-3608-483E-91F4-E1E0A544C60A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE0ADFC-239D-42E4-A2FC-C17C1EE63A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{CC1E6152-C37D-45DE-8218-C9477112E2ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CC1E6152-C37D-45DE-8218-C9477112E2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Jasa Perbaikan Website</t>
   </si>
@@ -43,6 +52,18 @@
   </si>
   <si>
     <t>Perbaikan Blog</t>
+  </si>
+  <si>
+    <t>Tanggal Pembayaran</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Sisa</t>
+  </si>
+  <si>
+    <t>31 Agustus 2023</t>
   </si>
 </sst>
 </file>
@@ -121,15 +142,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -445,52 +466,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29F6BF4-3AC2-4F37-B5DC-70FB3F04C578}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <f>D4/150000</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>200000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -499,6 +543,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>